--- a/data/trans_bre/IP16A08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 13,13</t>
+          <t>-14,78; 15,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 16,47</t>
+          <t>-14,65; 15,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 0,0</t>
+          <t>-48,9; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 0,0</t>
+          <t>-31,37; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 9,23</t>
+          <t>-11,63; 9,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 9,18</t>
+          <t>-6,82; 9,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 7,82</t>
+          <t>-10,39; 8,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 7,4</t>
+          <t>-8,98; 7,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 65,54</t>
+          <t>-44,64; 65,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 103,01</t>
+          <t>-44,84; 110,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,41; 63,9</t>
+          <t>-48,44; 72,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,14; 105,05</t>
+          <t>-60,0; 108,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 10,12</t>
+          <t>-15,6; 11,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 5,83</t>
+          <t>-19,38; 5,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 22,57</t>
+          <t>-7,7; 20,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 14,26</t>
+          <t>-6,92; 15,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 193,67</t>
+          <t>-100,0; 251,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,05; 82,05</t>
+          <t>-84,1; 87,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,44; 688,76</t>
+          <t>-58,84; 654,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,0; 426,68</t>
+          <t>-64,79; 420,51</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,0</t>
+          <t>-7,84; 6,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 5,14</t>
+          <t>-7,11; 5,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 6,47</t>
+          <t>-8,49; 6,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,81</t>
+          <t>-5,97; 5,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 44,54</t>
+          <t>-40,72; 53,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 51,23</t>
+          <t>-43,37; 64,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 57,97</t>
+          <t>-47,78; 64,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 81,38</t>
+          <t>-45,98; 79,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,08; 15,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,97; 15,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,61; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,21; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-9,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-22,79%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 15,07</t>
+          <t>-11,99; 7,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 15,89</t>
+          <t>-6,96; 9,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 0,0</t>
+          <t>-11,47; 8,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 0,0</t>
+          <t>-10,89; 4,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,29; 48,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,14; 117,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,66; 66,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,08; 56,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>-29,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>-40,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,0%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>41,5%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 9,63</t>
+          <t>-16,82; 9,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 9,45</t>
+          <t>-19,44; 7,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 8,62</t>
+          <t>-6,57; 23,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 7,17</t>
+          <t>-7,44; 13,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 65,02</t>
+          <t>-100,0; 180,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 110,71</t>
+          <t>-82,92; 115,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 72,85</t>
+          <t>-66,43; 589,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,0; 108,42</t>
+          <t>-73,19; 399,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,14%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,1%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>69,31%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>-17,44%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 11,3</t>
+          <t>-8,19; 6,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 5,85</t>
+          <t>-6,53; 5,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 20,72</t>
+          <t>-8,12; 6,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 15,4</t>
+          <t>-8,9; 3,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 251,29</t>
+          <t>-40,32; 46,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,1; 87,13</t>
+          <t>-42,57; 62,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 654,32</t>
+          <t>-46,22; 55,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,79; 420,51</t>
+          <t>-64,02; 50,59</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,94%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,73%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-6,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 6,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 5,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 6,78</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 5,74</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-40,72; 53,89</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-43,37; 64,85</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-47,78; 64,15</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-45,98; 79,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
